--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H2">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J2">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N2">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q2">
-        <v>108.6327219278459</v>
+        <v>121.2310156989921</v>
       </c>
       <c r="R2">
-        <v>108.6327219278459</v>
+        <v>1091.079141290929</v>
       </c>
       <c r="S2">
-        <v>0.1039982947854738</v>
+        <v>0.09465987004722201</v>
       </c>
       <c r="T2">
-        <v>0.1039982947854738</v>
+        <v>0.09465987004722203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H3">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J3">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q3">
-        <v>55.77626894296277</v>
+        <v>60.96710124172577</v>
       </c>
       <c r="R3">
-        <v>55.77626894296277</v>
+        <v>548.703911175532</v>
       </c>
       <c r="S3">
-        <v>0.05339677361133324</v>
+        <v>0.0476044669544542</v>
       </c>
       <c r="T3">
-        <v>0.05339677361133324</v>
+        <v>0.04760446695445422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H4">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J4">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N4">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q4">
-        <v>49.47624426858906</v>
+        <v>58.37830835688678</v>
       </c>
       <c r="R4">
-        <v>49.47624426858906</v>
+        <v>525.4047752119809</v>
       </c>
       <c r="S4">
-        <v>0.04736551699165233</v>
+        <v>0.04558307996330266</v>
       </c>
       <c r="T4">
-        <v>0.04736551699165233</v>
+        <v>0.04558307996330267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.939710371387051</v>
+        <v>1.026972333333333</v>
       </c>
       <c r="H5">
-        <v>0.939710371387051</v>
+        <v>3.080917</v>
       </c>
       <c r="I5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="J5">
-        <v>0.217296281275386</v>
+        <v>0.2032541865322035</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N5">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q5">
-        <v>13.09431821229016</v>
+        <v>19.73146933693445</v>
       </c>
       <c r="R5">
-        <v>13.09431821229016</v>
+        <v>177.58322403241</v>
       </c>
       <c r="S5">
-        <v>0.01253569588692669</v>
+        <v>0.01540676956722461</v>
       </c>
       <c r="T5">
-        <v>0.01253569588692669</v>
+        <v>0.01540676956722461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H6">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J6">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N6">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q6">
-        <v>156.4192769142624</v>
+        <v>160.3115415550531</v>
       </c>
       <c r="R6">
-        <v>156.4192769142624</v>
+        <v>1442.803873995478</v>
       </c>
       <c r="S6">
-        <v>0.1497462070541223</v>
+        <v>0.1251748127587231</v>
       </c>
       <c r="T6">
-        <v>0.1497462070541223</v>
+        <v>0.1251748127587231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H7">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J7">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q7">
-        <v>80.31174679419782</v>
+        <v>80.62070525311378</v>
       </c>
       <c r="R7">
-        <v>80.31174679419782</v>
+        <v>725.586347278024</v>
       </c>
       <c r="S7">
-        <v>0.07688553291877299</v>
+        <v>0.06295043754581514</v>
       </c>
       <c r="T7">
-        <v>0.07688553291877299</v>
+        <v>0.06295043754581515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H8">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J8">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N8">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q8">
-        <v>71.24039806409714</v>
+        <v>77.1973785100158</v>
       </c>
       <c r="R8">
-        <v>71.24039806409714</v>
+        <v>694.7764065901421</v>
       </c>
       <c r="S8">
-        <v>0.06820118088751803</v>
+        <v>0.06027742798004997</v>
       </c>
       <c r="T8">
-        <v>0.06820118088751803</v>
+        <v>0.06027742798004997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.35308049170328</v>
+        <v>1.358031333333334</v>
       </c>
       <c r="H9">
-        <v>1.35308049170328</v>
+        <v>4.074094000000001</v>
       </c>
       <c r="I9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="J9">
-        <v>0.3128829563511244</v>
+        <v>0.2687760370778347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N9">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q9">
-        <v>18.85439074068405</v>
+        <v>26.09218646162445</v>
       </c>
       <c r="R9">
-        <v>18.85439074068405</v>
+        <v>234.82967815462</v>
       </c>
       <c r="S9">
-        <v>0.01805003549071107</v>
+        <v>0.02037335879324642</v>
       </c>
       <c r="T9">
-        <v>0.01805003549071107</v>
+        <v>0.02037335879324642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H10">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J10">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N10">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q10">
-        <v>234.8770440768198</v>
+        <v>314.9077189609755</v>
       </c>
       <c r="R10">
-        <v>234.8770440768198</v>
+        <v>2834.169470648779</v>
       </c>
       <c r="S10">
-        <v>0.2248568537614859</v>
+        <v>0.2458869422304187</v>
       </c>
       <c r="T10">
-        <v>0.2248568537614859</v>
+        <v>0.2458869422304187</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H11">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J11">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q11">
-        <v>120.5950191293029</v>
+        <v>158.3671527702489</v>
       </c>
       <c r="R11">
-        <v>120.5950191293029</v>
+        <v>1425.30437493224</v>
       </c>
       <c r="S11">
-        <v>0.1154502632954303</v>
+        <v>0.1236565908034782</v>
       </c>
       <c r="T11">
-        <v>0.1154502632954303</v>
+        <v>0.1236565908034782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H12">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J12">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N12">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q12">
-        <v>106.9736061068917</v>
+        <v>151.6425463852689</v>
       </c>
       <c r="R12">
-        <v>106.9736061068917</v>
+        <v>1364.78291746742</v>
       </c>
       <c r="S12">
-        <v>0.1024099592161465</v>
+        <v>0.118405868759695</v>
       </c>
       <c r="T12">
-        <v>0.1024099592161465</v>
+        <v>0.118405868759695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.03176713611504</v>
+        <v>2.667646666666666</v>
       </c>
       <c r="H13">
-        <v>2.03176713611504</v>
+        <v>8.002939999999999</v>
       </c>
       <c r="I13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="J13">
-        <v>0.4698207623734895</v>
+        <v>0.5279697763899619</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N13">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q13">
-        <v>28.31149492826636</v>
+        <v>51.25414453402222</v>
       </c>
       <c r="R13">
-        <v>28.31149492826636</v>
+        <v>461.2873008061999</v>
       </c>
       <c r="S13">
-        <v>0.02710368610042681</v>
+        <v>0.04002037459637001</v>
       </c>
       <c r="T13">
-        <v>0.02710368610042681</v>
+        <v>0.04002037459637001</v>
       </c>
     </row>
   </sheetData>
